--- a/mf-intelligence/data/separated_files/nippon/Nippon India Aggressive Hybrid Fund/Nippon India Aggressive Hybrid Fund_Jul_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Aggressive Hybrid Fund/Nippon India Aggressive Hybrid Fund_Jul_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1759,61 +1759,61 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>KEII02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE878B01027</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>KEI Industries Limited</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>144642</v>
+        <v>50198</v>
       </c>
       <c r="F42" t="n">
-        <v>2082.19</v>
+        <v>1929.71</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0053</v>
+        <v>0.0049</v>
       </c>
       <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KEII02</t>
+          <t>TAHO01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INE878B01027</t>
+          <t>INE671A01010</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KEI Industries Limited</t>
+          <t>Honeywell Automation India Limited</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50198</v>
+        <v>4958</v>
       </c>
       <c r="F43" t="n">
-        <v>1929.71</v>
+        <v>1922.22</v>
       </c>
       <c r="G43" t="n">
         <v>0.0049</v>
@@ -1823,157 +1823,157 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TAHO01</t>
+          <t>TINV04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INE671A01010</t>
+          <t>INE149A01033</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Honeywell Automation India Limited</t>
+          <t>Cholamandalam Financial Holdings Limited</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Industrial Manufacturing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4958</v>
+        <v>100000</v>
       </c>
       <c r="F44" t="n">
-        <v>1922.22</v>
+        <v>1887.7</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0049</v>
+        <v>0.0048</v>
       </c>
       <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TINV04</t>
+          <t>VMML01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INE149A01033</t>
+          <t>INE01EA01019</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cholamandalam Financial Holdings Limited</t>
+          <t>Vishal Mega Mart Limited</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100000</v>
+        <v>1255743</v>
       </c>
       <c r="F45" t="n">
-        <v>1887.7</v>
+        <v>1752.26</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0048</v>
+        <v>0.0045</v>
       </c>
       <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VMML01</t>
+          <t>CALC03</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INE01EA01019</t>
+          <t>INE486A01021</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Vishal Mega Mart Limited</t>
+          <t>CESC Limited</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1255743</v>
+        <v>1000000</v>
       </c>
       <c r="F46" t="n">
-        <v>1752.26</v>
+        <v>1695.1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0045</v>
+        <v>0.0043</v>
       </c>
       <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CALC03</t>
+          <t>BHAH02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INE486A01021</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CESC Limited</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="F47" t="n">
-        <v>1695.1</v>
+        <v>1669.15</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0043</v>
+        <v>0.0042</v>
       </c>
       <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BHAH02</t>
+          <t>KAYN01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE918Z01012</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>Kaynes Technology India Limited</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>700000</v>
+        <v>26932</v>
       </c>
       <c r="F48" t="n">
-        <v>1669.15</v>
+        <v>1662.24</v>
       </c>
       <c r="G48" t="n">
         <v>0.0042</v>
@@ -1983,29 +1983,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KAYN01</t>
+          <t>ITCL02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INE918Z01012</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kaynes Technology India Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Industrial Manufacturing</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26932</v>
+        <v>397847</v>
       </c>
       <c r="F49" t="n">
-        <v>1662.24</v>
+        <v>1638.93</v>
       </c>
       <c r="G49" t="n">
         <v>0.0042</v>
@@ -2015,93 +2015,93 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ITCL02</t>
+          <t>ILOM01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE765G01017</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>ICICI Lombard General Insurance Company Limited</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>397847</v>
+        <v>83617</v>
       </c>
       <c r="F50" t="n">
-        <v>1638.93</v>
+        <v>1611.3</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0042</v>
+        <v>0.0041</v>
       </c>
       <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ILOM01</t>
+          <t>MEDP01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INE765G01017</t>
+          <t>INE804L01022</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Company Limited</t>
+          <t>MedPlus Health Services Limited</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>83617</v>
+        <v>169000</v>
       </c>
       <c r="F51" t="n">
-        <v>1611.3</v>
+        <v>1572.63</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
       <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MEDP01</t>
+          <t>KELV01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INE804L01022</t>
+          <t>INE716A01013</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MedPlus Health Services Limited</t>
+          <t>Whirlpool of India Limited</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>169000</v>
+        <v>116909</v>
       </c>
       <c r="F52" t="n">
-        <v>1572.63</v>
+        <v>1560.27</v>
       </c>
       <c r="G52" t="n">
         <v>0.004</v>
@@ -2111,125 +2111,125 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KELV01</t>
+          <t>UNES01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INE716A01013</t>
+          <t>INE00U401027</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Whirlpool of India Limited</t>
+          <t>Unicommerce Esolutions Limited</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>116909</v>
+        <v>1296372</v>
       </c>
       <c r="F53" t="n">
-        <v>1560.27</v>
+        <v>1552.28</v>
       </c>
       <c r="G53" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
       <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UNES01</t>
+          <t>HDLI01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INE00U401027</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unicommerce Esolutions Limited</t>
+          <t>HDFC Life Insurance Company Limited</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1296372</v>
+        <v>200000</v>
       </c>
       <c r="F54" t="n">
-        <v>1552.28</v>
+        <v>1511</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0039</v>
+        <v>0.0038</v>
       </c>
       <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HDLI01</t>
+          <t>EFPL01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE063P01018</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Company Limited</t>
+          <t>Equitas Small Finance Bank Limited</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>200000</v>
+        <v>2442378</v>
       </c>
       <c r="F55" t="n">
-        <v>1511</v>
+        <v>1447.35</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0038</v>
+        <v>0.0037</v>
       </c>
       <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EFPL01</t>
+          <t>KENI01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INE063P01018</t>
+          <t>INE146L01010</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Equitas Small Finance Bank Limited</t>
+          <t>Kirloskar Oil Engines Limited</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2442378</v>
+        <v>160000</v>
       </c>
       <c r="F56" t="n">
-        <v>1447.35</v>
+        <v>1446.72</v>
       </c>
       <c r="G56" t="n">
         <v>0.0037</v>
@@ -2239,61 +2239,61 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KENI01</t>
+          <t>SSNL02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INE146L01010</t>
+          <t>INE148O01028</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kirloskar Oil Engines Limited</t>
+          <t>Delhivery Limited</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>160000</v>
+        <v>324400</v>
       </c>
       <c r="F57" t="n">
-        <v>1446.72</v>
+        <v>1379.51</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0037</v>
+        <v>0.0035</v>
       </c>
       <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SSNL02</t>
+          <t>RAKH02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INE148O01028</t>
+          <t>INE944F01028</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Delhivery Limited</t>
+          <t>Radico Khaitan Limited</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Transport Services</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>324400</v>
+        <v>50000</v>
       </c>
       <c r="F58" t="n">
-        <v>1379.51</v>
+        <v>1367.25</v>
       </c>
       <c r="G58" t="n">
         <v>0.0035</v>
@@ -2303,157 +2303,157 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RAKH02</t>
+          <t>SIEM02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INE944F01028</t>
+          <t>INE003A01024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Radico Khaitan Limited</t>
+          <t>Siemens Limited</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50000</v>
+        <v>43550</v>
       </c>
       <c r="F59" t="n">
-        <v>1367.25</v>
+        <v>1321.05</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
       <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SIEM02</t>
+          <t>FRHL01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INE003A01024</t>
+          <t>INE061F01013</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Siemens Limited</t>
+          <t>Fortis Healthcare Limited</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>43550</v>
+        <v>146646</v>
       </c>
       <c r="F60" t="n">
-        <v>1321.05</v>
+        <v>1257.42</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0034</v>
+        <v>0.0032</v>
       </c>
       <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FRHL01</t>
+          <t>ELMA01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INE061F01013</t>
+          <t>INE02YR01019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fortis Healthcare Limited</t>
+          <t>Electronics Mart India Limited</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Healthcare Services</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>146646</v>
+        <v>969900</v>
       </c>
       <c r="F61" t="n">
-        <v>1257.42</v>
+        <v>1236.53</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0032</v>
+        <v>0.0031</v>
       </c>
       <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ELMA01</t>
+          <t>TPOW02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INE02YR01019</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Electronics Mart India Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>969900</v>
+        <v>300000</v>
       </c>
       <c r="F62" t="n">
-        <v>1236.53</v>
+        <v>1193.25</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0031</v>
+        <v>0.003</v>
       </c>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TPOW02</t>
+          <t>CGCE01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE299U01018</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Crompton Greaves Consumer Electricals Limited</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="F63" t="n">
-        <v>1193.25</v>
+        <v>1162.8</v>
       </c>
       <c r="G63" t="n">
         <v>0.003</v>
@@ -2463,401 +2463,401 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CGCE01</t>
+          <t>SUPI02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INE299U01018</t>
+          <t>INE195A01028</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Crompton Greaves Consumer Electricals Limited</t>
+          <t>Supreme Industries Limited</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>360000</v>
+        <v>26182</v>
       </c>
       <c r="F64" t="n">
-        <v>1162.8</v>
+        <v>1127.63</v>
       </c>
       <c r="G64" t="n">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SUPI02</t>
+          <t>PFCL01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INE195A01028</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Supreme Industries Limited</t>
+          <t>Power Finance Corporation Limited</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26182</v>
+        <v>254007</v>
       </c>
       <c r="F65" t="n">
-        <v>1127.63</v>
+        <v>1041.3</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0029</v>
+        <v>0.0026</v>
       </c>
       <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PFCL01</t>
+          <t>BPCL01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INE134E01011</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Limited</t>
+          <t>Bharat Petroleum Corporation Limited</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>254007</v>
+        <v>300000</v>
       </c>
       <c r="F66" t="n">
-        <v>1041.3</v>
+        <v>987.9</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BPCL01</t>
+          <t>ACSO01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE622W01025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corporation Limited</t>
+          <t>Acme Solar Holdings Ltd</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Petroleum Products</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>300000</v>
+        <v>341872</v>
       </c>
       <c r="F67" t="n">
-        <v>987.9</v>
+        <v>951.26</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ACSO01</t>
+          <t>LATE01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INE622W01025</t>
+          <t>INE0I7C01011</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Acme Solar Holdings Ltd</t>
+          <t>Latent View Analytics Limited</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>341872</v>
+        <v>222543</v>
       </c>
       <c r="F68" t="n">
-        <v>951.26</v>
+        <v>912.4299999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0024</v>
+        <v>0.0023</v>
       </c>
       <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LATE01</t>
+          <t>CIPL03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INE0I7C01011</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Latent View Analytics Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222543</v>
+        <v>53225</v>
       </c>
       <c r="F69" t="n">
-        <v>912.4299999999999</v>
+        <v>827.4400000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0023</v>
+        <v>0.0021</v>
       </c>
       <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CIPL03</t>
+          <t>STLI01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE01A001028</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Stanley Lifestyles Limited</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>53225</v>
+        <v>240817</v>
       </c>
       <c r="F70" t="n">
-        <v>827.4400000000001</v>
+        <v>792.77</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0021</v>
+        <v>0.002</v>
       </c>
       <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>STLI01</t>
+          <t>FUJI02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INE01A001028</t>
+          <t>INE520A01027</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Stanley Lifestyles Limited</t>
+          <t>Zensar Technologies Limited</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>240817</v>
+        <v>91081</v>
       </c>
       <c r="F71" t="n">
-        <v>792.77</v>
+        <v>734.25</v>
       </c>
       <c r="G71" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FUJI02</t>
+          <t>WESD02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INE520A01027</t>
+          <t>INE274F01020</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Zensar Technologies Limited</t>
+          <t>Westlife Foodworld Limited</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>91081</v>
+        <v>92486</v>
       </c>
       <c r="F72" t="n">
-        <v>734.25</v>
+        <v>673.0700000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
       <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WESD02</t>
+          <t>NGEL01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INE274F01020</t>
+          <t>INE0ONG01011</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Westlife Foodworld Limited</t>
+          <t>NTPC Green Energy Limited</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Leisure Services</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>92486</v>
+        <v>494624</v>
       </c>
       <c r="F73" t="n">
-        <v>673.0700000000001</v>
+        <v>515.74</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NGEL01</t>
+          <t>JKCE01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INE0ONG01011</t>
+          <t>INE823G01014</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NTPC Green Energy Limited</t>
+          <t>JK Cement Limited</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>494624</v>
+        <v>5971</v>
       </c>
       <c r="F74" t="n">
-        <v>515.74</v>
+        <v>397.61</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0013</v>
+        <v>0.001</v>
       </c>
       <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JKCE01</t>
+          <t>NHIT01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INE823G01014</t>
+          <t>INE0H7R23014</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JK Cement Limited</t>
+          <t>National Highways Infra Trust</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5971</v>
+        <v>3764760</v>
       </c>
       <c r="F75" t="n">
-        <v>397.61</v>
+        <v>5025.95</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001</v>
+        <v>0.0128</v>
       </c>
       <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NHIT01</t>
+          <t>CUBE01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INE0H7R23014</t>
+          <t>INE0NR623014</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>National Highways Infra Trust</t>
+          <t>Cube Highways Trust-InvIT Fund</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2866,62 +2866,62 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3764760</v>
+        <v>3800000</v>
       </c>
       <c r="F76" t="n">
-        <v>5025.95</v>
+        <v>4978</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0128</v>
+        <v>0.0126</v>
       </c>
       <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CUBE01</t>
+          <t>MEBP01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INE0NR623014</t>
+          <t>INE0CCU25019</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cube Highways Trust-InvIT Fund</t>
+          <t>Mindspace Business Parks REIT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Transport Infrastructure</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3800000</v>
+        <v>740095</v>
       </c>
       <c r="F77" t="n">
-        <v>4978</v>
+        <v>3059.26</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0126</v>
+        <v>0.0078</v>
       </c>
       <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MEBP01</t>
+          <t>NXST01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INE0CCU25019</t>
+          <t>INE0NDH25011</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mindspace Business Parks REIT</t>
+          <t>Nexus Select Trust - REIT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2930,30 +2930,30 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>740095</v>
+        <v>1400000</v>
       </c>
       <c r="F78" t="n">
-        <v>3059.26</v>
+        <v>2058</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0078</v>
+        <v>0.0052</v>
       </c>
       <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NXST01</t>
+          <t>BRFI01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INE0NDH25011</t>
+          <t>INE0FDU25010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nexus Select Trust - REIT</t>
+          <t>Brookfield India Real Estate Trust</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2962,510 +2962,506 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1400000</v>
+        <v>410584</v>
       </c>
       <c r="F79" t="n">
-        <v>2058</v>
+        <v>1292.03</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0052</v>
+        <v>0.0033</v>
       </c>
       <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BRFI01</t>
+          <t>SKRP21</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>INE0FDU25010</t>
+          <t>INE08BR07011</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brookfield India Real Estate Trust</t>
+          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Realty</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>410584</v>
+        <v>4836</v>
       </c>
       <c r="F80" t="n">
-        <v>1292.03</v>
+        <v>3926.25</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
+        <v>0.01</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.084095</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GOI5196</t>
+          <t>NBAR838</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IN0020230077</t>
+          <t>INE261F08EO7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>7.48% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5900000</v>
+        <v>3500</v>
       </c>
       <c r="F81" t="n">
-        <v>6159.61</v>
+        <v>3575.33</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0156</v>
+        <v>0.0091</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06751699999999999</v>
+        <v>0.06695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>LTMR58</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE128M08094</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA(CE)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5000000</v>
+        <v>3500</v>
       </c>
       <c r="F82" t="n">
-        <v>5211.26</v>
+        <v>3504.43</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0132</v>
+        <v>0.0089</v>
       </c>
       <c r="H82" t="n">
-        <v>0.065591</v>
+        <v>0.07525</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GOI6019</t>
+          <t>TOPL39</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IN0020240118</t>
+          <t>INE813H07259</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7.09% Government of India</t>
+          <t>8.65% Torrent Power Limited**</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3000000</v>
+        <v>300</v>
       </c>
       <c r="F83" t="n">
-        <v>3022.49</v>
+        <v>3189.53</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0077</v>
+        <v>0.0081</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07152500000000001</v>
+        <v>0.074299</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GOI4462</t>
+          <t>AFPL162</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IN1520220022</t>
+          <t>INE949L08459</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.8% State Government Securities</t>
+          <t>9.2% AU Small Finance Bank Limited**</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2500000</v>
+        <v>3000</v>
       </c>
       <c r="F84" t="n">
-        <v>2657.13</v>
+        <v>2996.17</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0068</v>
+        <v>0.0076</v>
       </c>
       <c r="H84" t="n">
-        <v>0.067486</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GOI6226</t>
+          <t>RUPL50</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IN0020240134</t>
+          <t>INE936D07182</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>6.92% Government of India</t>
+          <t>7.9% Jamnagar Utilities &amp; Power Private Limited</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2500000</v>
+        <v>2500</v>
       </c>
       <c r="F85" t="n">
-        <v>2550.28</v>
+        <v>2569.43</v>
       </c>
       <c r="G85" t="n">
         <v>0.0065</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06809800000000001</v>
+        <v>0.06850000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GOI5706</t>
+          <t>ICFP141</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IN3120240012</t>
+          <t>INE896L07975</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7.42% State Government Securities</t>
+          <t>9.95% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>200000</v>
+        <v>2500</v>
       </c>
       <c r="F86" t="n">
-        <v>207.14</v>
+        <v>2534.29</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0005</v>
+        <v>0.0064</v>
       </c>
       <c r="H86" t="n">
-        <v>0.069827</v>
+        <v>0.09135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOI1909</t>
+          <t>SESA537</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>IN0020170042</t>
+          <t>INE205A08020</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6.68% Government of India</t>
+          <t>9.5% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19510</v>
+        <v>2500</v>
       </c>
       <c r="F87" t="n">
-        <v>19.95</v>
+        <v>2528.48</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0001</v>
+        <v>0.0064</v>
       </c>
       <c r="H87" t="n">
-        <v>0.063233</v>
+        <v>0.088605</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOI2249</t>
+          <t>FEBA291</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IN0020190065</t>
+          <t>INE171A08032</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7.57% Government of India</t>
+          <t>8.2% The Federal Bank Limited**</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA+</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10200</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2521.46</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0064</v>
       </c>
       <c r="H88" t="n">
-        <v>0.065333</v>
+        <v>0.08008899999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GOI3607</t>
+          <t>CENT241</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IN0020210160</t>
+          <t>INE055A08037</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.11% Government of India</t>
+          <t>8.1% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="F89" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2514.01</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0064</v>
       </c>
       <c r="H89" t="n">
-        <v>0.059047</v>
+        <v>0.07195</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GOI2179</t>
+          <t>VFIP24</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IN0020180454</t>
+          <t>INE08Z607091</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7.26% Government of India</t>
+          <t>9.25% Vastu Finserve India Private Limited**</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA-</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8600</v>
+        <v>2500</v>
       </c>
       <c r="F90" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2470.09</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0063</v>
       </c>
       <c r="H90" t="n">
-        <v>0.06067</v>
+        <v>0.100751</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SKRP21</t>
+          <t>RCIL20</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INE08BR07011</t>
+          <t>INE124D08019</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
+          <t>9.1% Reliance General Insuarance Company Ltd**</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>CARE A</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4836</v>
+        <v>250</v>
       </c>
       <c r="F91" t="n">
-        <v>3926.25</v>
+        <v>2304.7</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01</v>
+        <v>0.0059</v>
       </c>
       <c r="H91" t="n">
-        <v>0.084095</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NBAR838</t>
+          <t>VLFP30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INE261F08EO7</t>
+          <t>INE321N07533</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.48% National Bank For Agriculture and Rural Development**</t>
+          <t>9.5% Incred Financial Services Limited**</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA-</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="F92" t="n">
-        <v>3575.33</v>
+        <v>1978.74</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0091</v>
+        <v>0.005</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06695</v>
+        <v>0.10535</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LTMR58</t>
+          <t>APTU20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INE128M08094</t>
+          <t>INE04MH07034</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited</t>
+          <t>9% Aptus Finance India Private Limited**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CRISIL AAA(CE)</t>
+          <t>CARE AA</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="F93" t="n">
-        <v>3504.43</v>
+        <v>1840.62</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0089</v>
+        <v>0.0047</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07525</v>
+        <v>0.092102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TOPL39</t>
+          <t>MUFL424</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INE813H07259</t>
+          <t>INE414G07JG7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8.65% Torrent Power Limited**</t>
+          <t>9.09% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3474,1114 +3470,683 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F94" t="n">
-        <v>3189.53</v>
+        <v>1553.6</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0081</v>
+        <v>0.0039</v>
       </c>
       <c r="H94" t="n">
-        <v>0.074299</v>
+        <v>0.079578</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AFPL162</t>
+          <t>IINF136</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INE949L08459</t>
+          <t>INE530B07419</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9.2% AU Small Finance Bank Limited**</t>
+          <t>9.8% IIFL Finance Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F95" t="n">
-        <v>2996.17</v>
+        <v>1506.89</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0076</v>
+        <v>0.0038</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0921</v>
+        <v>0.086645</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RUPL50</t>
+          <t>CHOL1064</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INE936D07182</t>
+          <t>INE121A08PP7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.9% Jamnagar Utilities &amp; Power Private Limited</t>
+          <t>9.1% Cholamandalam Investment and Finance Company Ltd**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="F96" t="n">
-        <v>2569.43</v>
+        <v>1226.31</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0065</v>
+        <v>0.0031</v>
       </c>
       <c r="H96" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.08615</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ICFP141</t>
+          <t>GOSL384</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INE896L07975</t>
+          <t>INE233A08139</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9.95% IndoStar Capital Finance Limited**</t>
+          <t>8.42% Godrej Industries Limited**</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F97" t="n">
-        <v>2534.29</v>
+        <v>1021.68</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0064</v>
+        <v>0.0026</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09135</v>
+        <v>0.0737</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SESA537</t>
+          <t>POWF372</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INE205A08020</t>
+          <t>INE134E08IT9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9.5% Vedanta Limited**</t>
+          <t>7.6% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="F98" t="n">
-        <v>2528.48</v>
+        <v>1016.91</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0064</v>
+        <v>0.0026</v>
       </c>
       <c r="H98" t="n">
-        <v>0.088605</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FEBA291</t>
+          <t>ICFP147</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INE171A08032</t>
+          <t>INE896L07983</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8.2% The Federal Bank Limited**</t>
+          <t>10.5% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CARE AA+</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25</v>
+        <v>100000</v>
       </c>
       <c r="F99" t="n">
-        <v>2521.46</v>
+        <v>1013.71</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0064</v>
+        <v>0.0026</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08008899999999999</v>
+        <v>0.09135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CENT241</t>
+          <t>SESA536</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INE055A08037</t>
+          <t>INE205A08038</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8.1% Aditya Birla Real Estate Limited**</t>
+          <t>9.4% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F100" t="n">
-        <v>2514.01</v>
+        <v>1007</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0064</v>
+        <v>0.0026</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07195</v>
+        <v>0.088449</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>VFIP24</t>
+          <t>TELA26</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INE08Z607091</t>
+          <t>INE1C3207024</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9.25% Vastu Finserve India Private Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ICRA AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="F101" t="n">
-        <v>2470.09</v>
+        <v>615.39</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0063</v>
+        <v>0.0016</v>
       </c>
       <c r="H101" t="n">
-        <v>0.100751</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RCIL20</t>
+          <t>TELA25</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INE124D08019</t>
+          <t>INE1C3207032</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9.1% Reliance General Insuarance Company Ltd**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CARE A</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="F102" t="n">
-        <v>2304.7</v>
+        <v>614.9</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0059</v>
+        <v>0.0016</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1792</v>
+        <v>0.09170200000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>VLFP30</t>
+          <t>TELA24</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INE321N07533</t>
+          <t>INE1C3207040</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9.5% Incred Financial Services Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CRISIL AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="F103" t="n">
-        <v>1978.74</v>
+        <v>612.51</v>
       </c>
       <c r="G103" t="n">
-        <v>0.005</v>
+        <v>0.0016</v>
       </c>
       <c r="H103" t="n">
-        <v>0.10535</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>APTU20</t>
+          <t>TELA22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INE04MH07034</t>
+          <t>INE1C3207073</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>9% Aptus Finance India Private Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CARE AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="F104" t="n">
-        <v>1840.62</v>
+        <v>608.58</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0047</v>
+        <v>0.0015</v>
       </c>
       <c r="H104" t="n">
-        <v>0.092102</v>
+        <v>0.09225</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MUFL424</t>
+          <t>TELA21</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INE414G07JG7</t>
+          <t>INE1C3207081</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>9.09% Muthoot Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F105" t="n">
-        <v>1553.6</v>
+        <v>607.1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0039</v>
+        <v>0.0015</v>
       </c>
       <c r="H105" t="n">
-        <v>0.079578</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IINF136</t>
+          <t>TELA20</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INE530B07419</t>
+          <t>INE1C3207057</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9.8% IIFL Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F106" t="n">
-        <v>1506.89</v>
+        <v>605.3200000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0038</v>
+        <v>0.0015</v>
       </c>
       <c r="H106" t="n">
-        <v>0.086645</v>
+        <v>0.09165</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHOL1064</t>
+          <t>SUMM22</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INE121A08PP7</t>
+          <t>INE507T07070</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9.1% Cholamandalam Investment and Finance Company Ltd**</t>
+          <t>7.4% Summit Digitel Infrastructure Limited**</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="F107" t="n">
-        <v>1226.31</v>
+        <v>507.12</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0031</v>
+        <v>0.0013</v>
       </c>
       <c r="H107" t="n">
-        <v>0.08615</v>
+        <v>0.070747</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GOSL384</t>
+          <t>AFPL128</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INE233A08139</t>
+          <t>INE949L08442</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8.42% Godrej Industries Limited**</t>
+          <t>9.3% AU Small Finance Bank Limited**</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>1021.68</v>
+        <v>506.89</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0026</v>
+        <v>0.0013</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0737</v>
+        <v>0.0872705</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>POWF372</t>
+          <t>PFPL128</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INE134E08IT9</t>
+          <t>INE516Y07451</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>7.6% Power Finance Corporation Limited**</t>
+          <t>8.75% Piramal Finance Limited**</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AA</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F109" t="n">
-        <v>1016.91</v>
+        <v>501.04</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0026</v>
+        <v>0.0013</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0654</v>
+        <v>0.08418299999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ICFP147</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INE896L07983</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10.5% IndoStar Capital Finance Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>100000</v>
+        <v>3750</v>
       </c>
       <c r="F110" t="n">
-        <v>1013.71</v>
+        <v>1881.26</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0026</v>
+        <v>0.0048</v>
       </c>
       <c r="H110" t="n">
-        <v>0.09135</v>
+        <v>0.075325</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SESA536</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INE205A08038</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9.4% Vedanta Limited**</t>
+          <t>National Highways Infra Trust</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="F111" t="n">
-        <v>1007</v>
+        <v>675.25</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0026</v>
+        <v>0.0017</v>
       </c>
       <c r="H111" t="n">
-        <v>0.088449</v>
+        <v>0.07514999999999999</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>TELA26</t>
-        </is>
-      </c>
+      <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INE1C3207024</t>
+          <t>INE171A08032</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>600</v>
-      </c>
-      <c r="F112" t="n">
-        <v>615.39</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.092</v>
-      </c>
+          <t>8.2% Federal Bank Ltd BSIII Tier2 (20/01/32)CALL</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0750837244875</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TELA25</t>
+          <t>YESB658A</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INE1C3207032</t>
+          <t>INE528G08352</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>9.5% Yes Bank Limited **#</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA D</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F113" t="n">
-        <v>614.9</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.09170200000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>$0.00%</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TELA24</t>
+          <t>YESB671A</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INE1C3207040</t>
+          <t>INE528G08394</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
+          <t>9% Yes Bank Limited **#</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA D</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>600</v>
+        <v>8153</v>
       </c>
       <c r="F114" t="n">
-        <v>612.51</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>TELA22</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>INE1C3207073</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>600</v>
-      </c>
-      <c r="F115" t="n">
-        <v>608.58</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.09225</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>TELA21</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>INE1C3207081</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>600</v>
-      </c>
-      <c r="F116" t="n">
-        <v>607.1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>TELA20</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>INE1C3207057</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>600</v>
-      </c>
-      <c r="F117" t="n">
-        <v>605.3200000000001</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.09165</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SUMM22</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>INE507T07070</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>7.4% Summit Digitel Infrastructure Limited**</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>50</v>
-      </c>
-      <c r="F118" t="n">
-        <v>507.12</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.070747</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>AFPL128</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>INE949L08442</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>9.3% AU Small Finance Bank Limited**</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>506.89</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.0872705</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>PFPL128</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>INE516Y07451</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>8.75% Piramal Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>CARE AA</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>500</v>
-      </c>
-      <c r="F120" t="n">
-        <v>501.04</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.08418299999999999</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>3750</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1881.26</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.075325</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>1250</v>
-      </c>
-      <c r="F122" t="n">
-        <v>675.25</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.07514999999999999</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>isin_code</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>security_name</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Yield to Call</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>INE171A08032</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>8.2% Federal Bank Ltd BSIII Tier2 (20/01/32)CALL</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>0.0750837244875</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ISIN</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Industry / Rating</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Market/Fair Value
-( Rs. in Lacs)</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>% to NAV</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>YESB658A</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>INE528G08352</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>9.5% Yes Bank Limited **#</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>ICRA D</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>630</v>
-      </c>
-      <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>$0.00%</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>YESB671A</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>INE528G08394</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>9% Yes Bank Limited **#</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>ICRA D</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>8153</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
